--- a/planning_info/S_chartering_2021_Borek.xlsx
+++ b/planning_info/S_chartering_2021_Borek.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,50 +497,55 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>fuel_remaining(liters)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>arrival time (local time)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>stoppage time (h)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>from lat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>from lon</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>destination lat</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>destination lon</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>start location name</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>landing location name</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>air speed kt</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>description of work</t>
         </is>
@@ -596,39 +601,42 @@
         <v>13</v>
       </c>
       <c r="M2" t="n">
+        <v>126</v>
+      </c>
+      <c r="N2" t="n">
         <v>12.1</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>end of flying</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>63.7553</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-68.5506</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>64.1917</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>-51.6742</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Iqaluit</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Nuuk</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>140</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>transit to Greenland.</t>
         </is>
@@ -663,6 +671,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -703,6 +712,7 @@
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -754,39 +764,42 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
+        <v>910</v>
+      </c>
+      <c r="N5" t="n">
         <v>9.9</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>64.1917</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-51.6742</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>67.0106</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>-50.711</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Nuuk</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Kangerlussuaq</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>140</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>transit to SFJ with 4 x AWS. leave 3 in SFJ at refueling</t>
         </is>
@@ -842,41 +855,44 @@
         <v>13</v>
       </c>
       <c r="M6" t="n">
+        <v>1085</v>
+      </c>
+      <c r="N6" t="n">
         <v>12.1</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>67.0106</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-50.711</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>66.48</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>-46.2789</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Kangerlussuaq</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>DYE-II</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>140</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>first AWS maintenance. new AWS installation at DY2</t>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>first AWS maintenance. new AWS installation at DY2. no refueling</t>
         </is>
       </c>
     </row>
@@ -930,39 +946,42 @@
         <v>24</v>
       </c>
       <c r="M7" t="n">
+        <v>770</v>
+      </c>
+      <c r="N7" t="n">
         <v>17.7</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>end of flying</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>66.48</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-46.2789</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>67.0106</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>-50.711</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>DYE-II</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Kangerlussuaq</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>140</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>return to SFJ to overnight</t>
         </is>
@@ -997,6 +1016,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1048,39 +1068,42 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
+        <v>940</v>
+      </c>
+      <c r="N9" t="n">
         <v>10.1</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>67.0106</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-50.711</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>65.9995</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>-44.5002</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Kangerlussuaq</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Saddle</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>140</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>AWS maintenance using crane at SDL</t>
         </is>
@@ -1112,7 +1135,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DY2</t>
+          <t>SFJ</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1123,174 +1146,181 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>161</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="K10" t="n">
-        <v>1069</v>
+        <v>1381</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="N10" t="inlineStr">
+        <v>479</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>end of flying</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>65.9995</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-44.5002</v>
+      </c>
+      <c r="R10" t="n">
+        <v>67.0106</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-50.711</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Saddle</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Kangerlussuaq</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>140</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>return to SFJ to overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>total fly time no taxi or circling</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SFJ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CP1</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>130</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>547</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>853</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>65.9995</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-44.5002</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-46.2789</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Saddle</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>DYE-II</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
+      <c r="P12" t="n">
+        <v>67.0106</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-50.711</v>
+      </c>
+      <c r="R12" t="n">
+        <v>69.8798</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-46.9867</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Kangerlussuaq</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Crawford Point</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
         <v>140</v>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>refuel at Raven/DYE-2 on return</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2021-06-19</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DY2</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>SFJ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>200</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L11" t="n">
-        <v>20</v>
-      </c>
-      <c r="M11" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>end of flying</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-46.2789</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>67.0106</v>
-      </c>
-      <c r="R11" t="n">
-        <v>-50.711</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>DYE-II</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Kangerlussuaq</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>140</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>return to SFJ to overnight</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>total fly time no taxi or circling</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>new AWS install at CP1. bring back whatever we can</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1313,12 +1343,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SFJ</t>
+          <t>CP1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CP1</t>
+          <t>JAV</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1329,162 +1359,114 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>547</v>
+        <v>1363</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M13" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>67.0106</v>
+        <v>584</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>end of flying</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>-50.711</v>
+        <v>69.8798</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.8798</v>
+        <v>-46.9867</v>
       </c>
       <c r="R13" t="n">
-        <v>-46.9867</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Kangerlussuaq</t>
-        </is>
+        <v>69.2405</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-51.0664</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
           <t>Crawford Point</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ilulissat</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
         <v>140</v>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>new AWS install at CP1. bring back whatever we can</t>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>return to JAV to overnight</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2021-06-20</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CP1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>JAV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>130</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>total fly time no taxi or circling</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1363</v>
-      </c>
-      <c r="L14" t="n">
-        <v>14</v>
-      </c>
-      <c r="M14" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>end of flying</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>69.8798</v>
-      </c>
-      <c r="P14" t="n">
-        <v>-46.9867</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>69.2405</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-51.0664</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Crawford Point</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Ilulissat</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
-        <v>140</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>return to JAV to overnight</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6 weather delay</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>total fly time no taxi or circling</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1494,49 +1476,105 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>relax</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6 weather delay</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>JAV</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DY2</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>250</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>567</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>833</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>69.2405</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-51.0664</v>
+      </c>
+      <c r="R16" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-46.2789</v>
+      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>relax</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+          <t>Ilulissat</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>DYE-II</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>140</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>long day. bring fuel drum with. refuel 200 liters at Raven/DYE-2. proceed to SDM</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1559,70 +1597,73 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>JAV</t>
+          <t>DY2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DY2</t>
+          <t>SDM</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>204</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K17" t="n">
-        <v>567</v>
+        <v>1717</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>69.2405</v>
+        <v>450</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>-51.0664</v>
+        <v>66.48</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.48</v>
+        <v>-46.2789</v>
       </c>
       <c r="R17" t="n">
-        <v>-46.2789</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Ilulissat</t>
-        </is>
+        <v>63.1489</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-44.8172</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
           <t>DYE-II</t>
         </is>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>South Dome</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
         <v>140</v>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>long day. refuel at Raven/DYE-2. proceed to SDM</t>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>to SDM. 2950 m ASL</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1688,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DY2</t>
+          <t>SDM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SDM</t>
+          <t>UAK</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1663,292 +1704,303 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>121</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="K18" t="n">
-        <v>1717</v>
+        <v>3213</v>
       </c>
       <c r="L18" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M18" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="N18" t="inlineStr">
+        <v>105</v>
+      </c>
+      <c r="N18" t="n">
+        <v>18</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>end of flying</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>63.1489</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-44.8172</v>
+      </c>
+      <c r="R18" t="n">
+        <v>61.1614</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-45.4178</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>South Dome</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Narsarsuaq</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>140</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>to UAK to overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>total fly time no taxi or circling</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UAK</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>GOH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>718</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>682</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>61.1614</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-45.4178</v>
+      </c>
+      <c r="R20" t="n">
+        <v>64.1917</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-51.6742</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Narsarsuaq</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Nuuk</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>140</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>total fly time no taxi or circling</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GOH</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>767</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>633</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="O18" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-46.2789</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>63.1489</v>
-      </c>
-      <c r="R18" t="n">
-        <v>-44.8172</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>DYE-II</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>South Dome</t>
-        </is>
-      </c>
-      <c r="U18" t="n">
+      <c r="P22" t="n">
+        <v>64.1917</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-51.6742</v>
+      </c>
+      <c r="R22" t="n">
+        <v>66.47969999999999</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-42.5002</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Nuuk</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NASA-SE</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
         <v>140</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>to SDM. 2950 m ASL</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2021-06-22</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SDM</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>UAK</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>100</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3213</v>
-      </c>
-      <c r="L19" t="n">
-        <v>33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>18</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>end of flying</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>63.1489</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-44.8172</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>61.1614</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-45.4178</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>South Dome</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Narsarsuaq</t>
-        </is>
-      </c>
-      <c r="U19" t="n">
-        <v>140</v>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>to UAK to overnight</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>total fly time no taxi or circling</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2021-06-23</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>UAK</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>GOH</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>718</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7</v>
-      </c>
-      <c r="M21" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>61.1614</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-45.4178</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>64.1917</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-51.6742</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Narsarsuaq</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Nuuk</t>
-        </is>
-      </c>
-      <c r="U21" t="n">
-        <v>140</v>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>transit</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>total fly time no taxi or circling</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>new AWS install at NSE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1971,70 +2023,73 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GOH</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DY2</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>767</v>
+        <v>1793</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M23" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>64.1917</v>
+        <v>374</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>-51.6742</v>
+        <v>66.47969999999999</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.47969999999999</v>
+        <v>-42.5002</v>
       </c>
       <c r="R23" t="n">
-        <v>-42.5002</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Nuuk</t>
-        </is>
+        <v>66.48</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-46.2789</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
           <t>NASA-SE</t>
         </is>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>DYE-II</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
         <v>140</v>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>new AWS install at NSE</t>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>transit to DY2 to refuel. bring fuel drum with.</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2114,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DY2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DY2</t>
+          <t>SFJ</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2075,292 +2130,212 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K24" t="n">
-        <v>1793</v>
+        <v>3134</v>
       </c>
       <c r="L24" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M24" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="N24" t="inlineStr">
+        <v>259</v>
+      </c>
+      <c r="N24" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>66.47969999999999</v>
-      </c>
       <c r="P24" t="n">
-        <v>-42.5002</v>
+        <v>66.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>66.48</v>
+        <v>-46.2789</v>
       </c>
       <c r="R24" t="n">
-        <v>-46.2789</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>NASA-SE</t>
-        </is>
+        <v>67.0106</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-50.711</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
           <t>DYE-II</t>
         </is>
       </c>
-      <c r="U24" t="n">
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Kangerlussuaq</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
         <v>140</v>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>transit to DY2 to refuel</t>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>transit to SFJ</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2021-06-24</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>total fly time no taxi or circling</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>8</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>DY2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>SFJ</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>100</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>IKA</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3134</v>
-      </c>
-      <c r="L25" t="n">
-        <v>32</v>
-      </c>
-      <c r="M25" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-46.2789</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1391</v>
+      </c>
+      <c r="L26" t="n">
+        <v>14</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>67.0106</v>
       </c>
-      <c r="R25" t="n">
+      <c r="Q26" t="n">
         <v>-50.711</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>DYE-II</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
+      <c r="R26" t="n">
+        <v>63.7553</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-68.5506</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>Kangerlussuaq</t>
         </is>
       </c>
-      <c r="U25" t="n">
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Iqaluit</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
         <v>140</v>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>transit to SFJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>transit back to Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
         <is>
           <t>total fly time no taxi or circling</t>
         </is>
       </c>
-      <c r="J26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2021-06-25</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SFJ</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>IKA</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>487</t>
-        </is>
-      </c>
       <c r="J27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1391</v>
-      </c>
-      <c r="L27" t="n">
-        <v>14</v>
-      </c>
-      <c r="M27" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>67.0106</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-50.711</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>63.7553</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-68.5506</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Kangerlussuaq</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Iqaluit</t>
-        </is>
-      </c>
-      <c r="U27" t="n">
-        <v>140</v>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>transit back to Canada</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>total fly time no taxi or circling</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
         <v>3.5</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
